--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EF9BB8-4EA6-49D4-A6B8-4C465FF94E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A07771-E313-4E9E-A088-C11132E25F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxMask" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -453,6 +453,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -465,7 +483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -485,6 +503,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -803,11 +857,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G94" sqref="G94"/>
+      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2208,7 +2262,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <f t="shared" ref="B52:B100" si="8">B51*2.5</f>
+        <f t="shared" ref="B52:B105" si="8">B51*2.5</f>
         <v>2.3518953930046395E+70</v>
       </c>
       <c r="C52" s="4">
@@ -3256,244 +3310,364 @@
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="4">
+    <row r="91" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="7">
         <v>89</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="8">
         <f t="shared" si="8"/>
         <v>7.7817690873848846E+85</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="7">
         <v>687000000000000</v>
       </c>
-      <c r="D91" s="6">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E91" s="4">
+      <c r="D91" s="9">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E91" s="7">
         <v>19800</v>
       </c>
-      <c r="F91" s="4">
-        <v>0</v>
-      </c>
-      <c r="G91" s="4">
+      <c r="F91" s="7">
+        <v>0</v>
+      </c>
+      <c r="G91" s="7">
         <v>96000000</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="4">
+    <row r="92" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="11">
         <v>90</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="12">
         <f t="shared" si="8"/>
         <v>1.9454422718462212E+86</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="11">
         <v>696000000000000</v>
       </c>
-      <c r="D92" s="6">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E92" s="4">
+      <c r="D92" s="13">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E92" s="11">
         <v>20000</v>
       </c>
-      <c r="F92" s="4">
-        <v>0</v>
-      </c>
-      <c r="G92" s="4">
+      <c r="F92" s="11">
+        <v>0</v>
+      </c>
+      <c r="G92" s="11">
         <v>98000000</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="4">
+    <row r="93" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="11">
         <v>91</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="12">
         <f t="shared" si="8"/>
         <v>4.8636056796155533E+86</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="11">
         <v>705000000000000</v>
       </c>
-      <c r="D93" s="6">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E93" s="4">
+      <c r="D93" s="13">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E93" s="11">
         <v>20200</v>
       </c>
-      <c r="F93" s="4">
-        <v>0</v>
-      </c>
-      <c r="G93" s="4">
+      <c r="F93" s="11">
+        <v>0</v>
+      </c>
+      <c r="G93" s="11">
         <v>100000000</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="4">
+    <row r="94" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="11">
         <v>92</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="12">
         <f t="shared" si="8"/>
         <v>1.2159014199038884E+87</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="11">
         <v>714000000000000</v>
       </c>
-      <c r="D94" s="6">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E94" s="4">
+      <c r="D94" s="13">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E94" s="11">
         <v>20400</v>
       </c>
-      <c r="F94" s="4">
-        <v>0</v>
-      </c>
-      <c r="G94" s="4">
+      <c r="F94" s="11">
+        <v>0</v>
+      </c>
+      <c r="G94" s="11">
         <v>102000000</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="4">
+    <row r="95" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="11">
         <v>93</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="12">
         <f t="shared" si="8"/>
         <v>3.0397535497597211E+87</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="11">
         <v>723000000000000</v>
       </c>
-      <c r="D95" s="6">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E95" s="4">
+      <c r="D95" s="13">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E95" s="11">
         <v>20600</v>
       </c>
-      <c r="F95" s="4">
-        <v>0</v>
-      </c>
-      <c r="G95" s="4">
+      <c r="F95" s="11">
+        <v>0</v>
+      </c>
+      <c r="G95" s="11">
         <v>104000000</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="4">
+    <row r="96" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="7">
         <v>94</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="8">
         <f t="shared" si="8"/>
         <v>7.5993838743993025E+87</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="7">
         <v>732000000000000</v>
       </c>
-      <c r="D96" s="6">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E96" s="4">
+      <c r="D96" s="9">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E96" s="7">
         <v>20800</v>
       </c>
-      <c r="F96" s="4">
-        <v>0</v>
-      </c>
-      <c r="G96" s="4">
+      <c r="F96" s="7">
+        <v>0</v>
+      </c>
+      <c r="G96" s="7">
         <v>106000000</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="4">
+    <row r="97" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="11">
         <v>95</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="12">
         <f t="shared" si="8"/>
         <v>1.8998459685998258E+88</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="11">
         <v>741000000000000</v>
       </c>
-      <c r="D97" s="6">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E97" s="4">
+      <c r="D97" s="13">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E97" s="11">
         <v>21000</v>
       </c>
-      <c r="F97" s="4">
-        <v>0</v>
-      </c>
-      <c r="G97" s="4">
+      <c r="F97" s="11">
+        <v>0</v>
+      </c>
+      <c r="G97" s="11">
         <v>108000000</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="4">
+    <row r="98" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="11">
         <v>96</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="12">
         <f t="shared" si="8"/>
         <v>4.7496149214995645E+88</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="11">
         <v>750000000000000</v>
       </c>
-      <c r="D98" s="6">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E98" s="4">
+      <c r="D98" s="13">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E98" s="11">
         <v>21200</v>
       </c>
-      <c r="F98" s="4">
-        <v>0</v>
-      </c>
-      <c r="G98" s="4">
+      <c r="F98" s="11">
+        <v>0</v>
+      </c>
+      <c r="G98" s="11">
         <v>110000000</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="4">
+    <row r="99" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="11">
         <v>97</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="12">
         <f t="shared" si="8"/>
         <v>1.1874037303748912E+89</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="11">
         <v>759000000000000</v>
       </c>
-      <c r="D99" s="6">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E99" s="4">
+      <c r="D99" s="13">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E99" s="11">
         <v>21400</v>
       </c>
-      <c r="F99" s="4">
-        <v>0</v>
-      </c>
-      <c r="G99" s="4">
+      <c r="F99" s="11">
+        <v>0</v>
+      </c>
+      <c r="G99" s="11">
         <v>112000000</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="4">
+    <row r="100" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="11">
         <v>98</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="12">
         <f t="shared" si="8"/>
         <v>2.9685093259372277E+89</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100" s="11">
         <v>768000000000000</v>
       </c>
-      <c r="D100" s="6">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E100" s="4">
+      <c r="D100" s="13">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E100" s="11">
         <v>21600</v>
       </c>
-      <c r="F100" s="4">
-        <v>0</v>
-      </c>
-      <c r="G100" s="4">
+      <c r="F100" s="11">
+        <v>0</v>
+      </c>
+      <c r="G100" s="11">
         <v>114000000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="7">
+        <v>99</v>
+      </c>
+      <c r="B101" s="8">
+        <f t="shared" si="8"/>
+        <v>7.4212733148430692E+89</v>
+      </c>
+      <c r="C101" s="7">
+        <v>777000000000000</v>
+      </c>
+      <c r="D101" s="9">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E101" s="7">
+        <v>21800</v>
+      </c>
+      <c r="F101" s="7">
+        <v>0</v>
+      </c>
+      <c r="G101" s="7">
+        <v>116000000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="11">
+        <v>100</v>
+      </c>
+      <c r="B102" s="12">
+        <f t="shared" si="8"/>
+        <v>1.8553183287107672E+90</v>
+      </c>
+      <c r="C102" s="11">
+        <v>786000000000000</v>
+      </c>
+      <c r="D102" s="13">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E102" s="11">
+        <v>22000</v>
+      </c>
+      <c r="F102" s="11">
+        <v>0</v>
+      </c>
+      <c r="G102" s="11">
+        <v>118000000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="11">
+        <v>101</v>
+      </c>
+      <c r="B103" s="12">
+        <f t="shared" si="8"/>
+        <v>4.638295821776918E+90</v>
+      </c>
+      <c r="C103" s="11">
+        <v>795000000000000</v>
+      </c>
+      <c r="D103" s="13">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E103" s="11">
+        <v>22200</v>
+      </c>
+      <c r="F103" s="11">
+        <v>0</v>
+      </c>
+      <c r="G103" s="11">
+        <v>120000000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="11">
+        <v>102</v>
+      </c>
+      <c r="B104" s="12">
+        <f t="shared" si="8"/>
+        <v>1.1595739554442294E+91</v>
+      </c>
+      <c r="C104" s="11">
+        <v>804000000000000</v>
+      </c>
+      <c r="D104" s="13">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E104" s="11">
+        <v>22400</v>
+      </c>
+      <c r="F104" s="11">
+        <v>0</v>
+      </c>
+      <c r="G104" s="11">
+        <v>122000000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="18" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="15">
+        <v>103</v>
+      </c>
+      <c r="B105" s="16">
+        <f t="shared" si="8"/>
+        <v>2.8989348886105733E+91</v>
+      </c>
+      <c r="C105" s="15">
+        <v>813000000000000</v>
+      </c>
+      <c r="D105" s="17">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E105" s="15">
+        <v>22600</v>
+      </c>
+      <c r="F105" s="15">
+        <v>0</v>
+      </c>
+      <c r="G105" s="15">
+        <v>124000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A07771-E313-4E9E-A088-C11132E25F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42198BB6-06D2-482A-BAD8-089F80685A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxMask" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -520,13 +520,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1">
@@ -857,11 +851,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
+      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2262,7 +2256,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <f t="shared" ref="B52:B105" si="8">B51*2.5</f>
+        <f t="shared" ref="B52:B110" si="8">B51*2.5</f>
         <v>2.3518953930046395E+70</v>
       </c>
       <c r="C52" s="4">
@@ -3334,18 +3328,18 @@
         <v>96000000</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="11">
         <v>90</v>
       </c>
-      <c r="B92" s="12">
+      <c r="B92" s="2">
         <f t="shared" si="8"/>
         <v>1.9454422718462212E+86</v>
       </c>
       <c r="C92" s="11">
         <v>696000000000000</v>
       </c>
-      <c r="D92" s="13">
+      <c r="D92" s="12">
         <v>8.3333333333333304</v>
       </c>
       <c r="E92" s="11">
@@ -3358,18 +3352,18 @@
         <v>98000000</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="11">
         <v>91</v>
       </c>
-      <c r="B93" s="12">
+      <c r="B93" s="2">
         <f t="shared" si="8"/>
         <v>4.8636056796155533E+86</v>
       </c>
       <c r="C93" s="11">
         <v>705000000000000</v>
       </c>
-      <c r="D93" s="13">
+      <c r="D93" s="12">
         <v>8.3333333333333304</v>
       </c>
       <c r="E93" s="11">
@@ -3382,18 +3376,18 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="11">
         <v>92</v>
       </c>
-      <c r="B94" s="12">
+      <c r="B94" s="2">
         <f t="shared" si="8"/>
         <v>1.2159014199038884E+87</v>
       </c>
       <c r="C94" s="11">
         <v>714000000000000</v>
       </c>
-      <c r="D94" s="13">
+      <c r="D94" s="12">
         <v>8.3333333333333304</v>
       </c>
       <c r="E94" s="11">
@@ -3406,18 +3400,18 @@
         <v>102000000</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="11">
         <v>93</v>
       </c>
-      <c r="B95" s="12">
+      <c r="B95" s="2">
         <f t="shared" si="8"/>
         <v>3.0397535497597211E+87</v>
       </c>
       <c r="C95" s="11">
         <v>723000000000000</v>
       </c>
-      <c r="D95" s="13">
+      <c r="D95" s="12">
         <v>8.3333333333333304</v>
       </c>
       <c r="E95" s="11">
@@ -3454,18 +3448,18 @@
         <v>106000000</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="11">
         <v>95</v>
       </c>
-      <c r="B97" s="12">
+      <c r="B97" s="2">
         <f t="shared" si="8"/>
         <v>1.8998459685998258E+88</v>
       </c>
       <c r="C97" s="11">
         <v>741000000000000</v>
       </c>
-      <c r="D97" s="13">
+      <c r="D97" s="12">
         <v>8.3333333333333304</v>
       </c>
       <c r="E97" s="11">
@@ -3478,18 +3472,18 @@
         <v>108000000</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="11">
         <v>96</v>
       </c>
-      <c r="B98" s="12">
+      <c r="B98" s="2">
         <f t="shared" si="8"/>
         <v>4.7496149214995645E+88</v>
       </c>
       <c r="C98" s="11">
         <v>750000000000000</v>
       </c>
-      <c r="D98" s="13">
+      <c r="D98" s="12">
         <v>8.3333333333333304</v>
       </c>
       <c r="E98" s="11">
@@ -3502,18 +3496,18 @@
         <v>110000000</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="11">
         <v>97</v>
       </c>
-      <c r="B99" s="12">
+      <c r="B99" s="2">
         <f t="shared" si="8"/>
         <v>1.1874037303748912E+89</v>
       </c>
       <c r="C99" s="11">
         <v>759000000000000</v>
       </c>
-      <c r="D99" s="13">
+      <c r="D99" s="12">
         <v>8.3333333333333304</v>
       </c>
       <c r="E99" s="11">
@@ -3526,18 +3520,18 @@
         <v>112000000</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="11">
         <v>98</v>
       </c>
-      <c r="B100" s="12">
+      <c r="B100" s="2">
         <f t="shared" si="8"/>
         <v>2.9685093259372277E+89</v>
       </c>
       <c r="C100" s="11">
         <v>768000000000000</v>
       </c>
-      <c r="D100" s="13">
+      <c r="D100" s="12">
         <v>8.3333333333333304</v>
       </c>
       <c r="E100" s="11">
@@ -3574,18 +3568,18 @@
         <v>116000000</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="11">
         <v>100</v>
       </c>
-      <c r="B102" s="12">
+      <c r="B102" s="2">
         <f t="shared" si="8"/>
         <v>1.8553183287107672E+90</v>
       </c>
       <c r="C102" s="11">
         <v>786000000000000</v>
       </c>
-      <c r="D102" s="13">
+      <c r="D102" s="12">
         <v>8.3333333333333304</v>
       </c>
       <c r="E102" s="11">
@@ -3598,18 +3592,18 @@
         <v>118000000</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="11">
         <v>101</v>
       </c>
-      <c r="B103" s="12">
+      <c r="B103" s="2">
         <f t="shared" si="8"/>
         <v>4.638295821776918E+90</v>
       </c>
       <c r="C103" s="11">
         <v>795000000000000</v>
       </c>
-      <c r="D103" s="13">
+      <c r="D103" s="12">
         <v>8.3333333333333304</v>
       </c>
       <c r="E103" s="11">
@@ -3622,18 +3616,18 @@
         <v>120000000</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="11">
         <v>102</v>
       </c>
-      <c r="B104" s="12">
+      <c r="B104" s="2">
         <f t="shared" si="8"/>
         <v>1.1595739554442294E+91</v>
       </c>
       <c r="C104" s="11">
         <v>804000000000000</v>
       </c>
-      <c r="D104" s="13">
+      <c r="D104" s="12">
         <v>8.3333333333333304</v>
       </c>
       <c r="E104" s="11">
@@ -3646,28 +3640,148 @@
         <v>122000000</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="18" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="15">
+    <row r="105" spans="1:7" s="16" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="13">
         <v>103</v>
       </c>
-      <c r="B105" s="16">
+      <c r="B105" s="14">
         <f t="shared" si="8"/>
         <v>2.8989348886105733E+91</v>
       </c>
-      <c r="C105" s="15">
+      <c r="C105" s="13">
         <v>813000000000000</v>
       </c>
-      <c r="D105" s="17">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E105" s="15">
+      <c r="D105" s="15">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E105" s="13">
         <v>22600</v>
       </c>
-      <c r="F105" s="15">
-        <v>0</v>
-      </c>
-      <c r="G105" s="15">
+      <c r="F105" s="13">
+        <v>0</v>
+      </c>
+      <c r="G105" s="13">
         <v>124000000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="7">
+        <v>104</v>
+      </c>
+      <c r="B106" s="8">
+        <f t="shared" si="8"/>
+        <v>7.2473372215264334E+91</v>
+      </c>
+      <c r="C106" s="7">
+        <v>822000000000000</v>
+      </c>
+      <c r="D106" s="9">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E106" s="7">
+        <v>22800</v>
+      </c>
+      <c r="F106" s="7">
+        <v>0</v>
+      </c>
+      <c r="G106" s="7">
+        <v>126000000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="11">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2">
+        <f t="shared" si="8"/>
+        <v>1.8118343053816082E+92</v>
+      </c>
+      <c r="C107" s="11">
+        <v>831000000000000</v>
+      </c>
+      <c r="D107" s="12">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E107" s="11">
+        <v>23000</v>
+      </c>
+      <c r="F107" s="11">
+        <v>0</v>
+      </c>
+      <c r="G107" s="11">
+        <v>128000000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="11">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2">
+        <f t="shared" si="8"/>
+        <v>4.5295857634540205E+92</v>
+      </c>
+      <c r="C108" s="11">
+        <v>840000000000000</v>
+      </c>
+      <c r="D108" s="12">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E108" s="11">
+        <v>23200</v>
+      </c>
+      <c r="F108" s="11">
+        <v>0</v>
+      </c>
+      <c r="G108" s="11">
+        <v>130000000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="11">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2">
+        <f t="shared" si="8"/>
+        <v>1.132396440863505E+93</v>
+      </c>
+      <c r="C109" s="11">
+        <v>849000000000000</v>
+      </c>
+      <c r="D109" s="12">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E109" s="11">
+        <v>23400</v>
+      </c>
+      <c r="F109" s="11">
+        <v>0</v>
+      </c>
+      <c r="G109" s="11">
+        <v>132000000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="13">
+        <v>108</v>
+      </c>
+      <c r="B110" s="14">
+        <f t="shared" si="8"/>
+        <v>2.8309911021587628E+93</v>
+      </c>
+      <c r="C110" s="13">
+        <v>858000000000000</v>
+      </c>
+      <c r="D110" s="15">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E110" s="13">
+        <v>23600</v>
+      </c>
+      <c r="F110" s="13">
+        <v>0</v>
+      </c>
+      <c r="G110" s="13">
+        <v>134000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42198BB6-06D2-482A-BAD8-089F80685A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336D01A9-7502-455B-8810-2D788AE79FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxMask" sheetId="1" r:id="rId1"/>
@@ -851,11 +851,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2256,7 +2256,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <f t="shared" ref="B52:B110" si="8">B51*2.5</f>
+        <f t="shared" ref="B52:B115" si="8">B51*2.5</f>
         <v>2.3518953930046395E+70</v>
       </c>
       <c r="C52" s="4">
@@ -3782,6 +3782,126 @@
       </c>
       <c r="G110" s="13">
         <v>134000000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="7">
+        <v>109</v>
+      </c>
+      <c r="B111" s="8">
+        <f t="shared" si="8"/>
+        <v>7.0774777553969075E+93</v>
+      </c>
+      <c r="C111" s="7">
+        <v>867000000000000</v>
+      </c>
+      <c r="D111" s="9">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E111" s="7">
+        <v>23800</v>
+      </c>
+      <c r="F111" s="7">
+        <v>0</v>
+      </c>
+      <c r="G111" s="7">
+        <v>136000000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="11">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2">
+        <f t="shared" si="8"/>
+        <v>1.769369438849227E+94</v>
+      </c>
+      <c r="C112" s="11">
+        <v>876000000000000</v>
+      </c>
+      <c r="D112" s="12">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E112" s="11">
+        <v>24000</v>
+      </c>
+      <c r="F112" s="11">
+        <v>0</v>
+      </c>
+      <c r="G112" s="11">
+        <v>138000000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="11">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2">
+        <f t="shared" si="8"/>
+        <v>4.4234235971230674E+94</v>
+      </c>
+      <c r="C113" s="11">
+        <v>885000000000000</v>
+      </c>
+      <c r="D113" s="12">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E113" s="11">
+        <v>24200</v>
+      </c>
+      <c r="F113" s="11">
+        <v>0</v>
+      </c>
+      <c r="G113" s="11">
+        <v>140000000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="11">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2">
+        <f t="shared" si="8"/>
+        <v>1.1058558992807668E+95</v>
+      </c>
+      <c r="C114" s="11">
+        <v>894000000000000</v>
+      </c>
+      <c r="D114" s="12">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E114" s="11">
+        <v>24400</v>
+      </c>
+      <c r="F114" s="11">
+        <v>0</v>
+      </c>
+      <c r="G114" s="11">
+        <v>142000000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="13">
+        <v>113</v>
+      </c>
+      <c r="B115" s="14">
+        <f t="shared" si="8"/>
+        <v>2.7646397482019169E+95</v>
+      </c>
+      <c r="C115" s="13">
+        <v>903000000000000</v>
+      </c>
+      <c r="D115" s="15">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E115" s="13">
+        <v>24600</v>
+      </c>
+      <c r="F115" s="13">
+        <v>0</v>
+      </c>
+      <c r="G115" s="13">
+        <v>144000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336D01A9-7502-455B-8810-2D788AE79FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277FFE77-7DFE-4ED4-A927-6B19A8115EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -851,11 +851,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E112" sqref="E112"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2256,7 +2256,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <f t="shared" ref="B52:B115" si="8">B51*2.5</f>
+        <f t="shared" ref="B52:B116" si="8">B51*2.5</f>
         <v>2.3518953930046395E+70</v>
       </c>
       <c r="C52" s="4">
@@ -3902,6 +3902,126 @@
       </c>
       <c r="G115" s="13">
         <v>144000000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="7">
+        <v>114</v>
+      </c>
+      <c r="B116" s="8">
+        <f t="shared" si="8"/>
+        <v>6.9115993705047923E+95</v>
+      </c>
+      <c r="C116" s="7">
+        <v>912000000000000</v>
+      </c>
+      <c r="D116" s="9">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E116" s="7">
+        <v>24800</v>
+      </c>
+      <c r="F116" s="7">
+        <v>0</v>
+      </c>
+      <c r="G116" s="7">
+        <v>146000000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="11">
+        <v>115</v>
+      </c>
+      <c r="B117" s="2">
+        <f t="shared" ref="B117:B120" si="9">B116*2.5</f>
+        <v>1.7278998426261981E+96</v>
+      </c>
+      <c r="C117" s="11">
+        <v>921000000000000</v>
+      </c>
+      <c r="D117" s="12">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E117" s="11">
+        <v>25000</v>
+      </c>
+      <c r="F117" s="11">
+        <v>0</v>
+      </c>
+      <c r="G117" s="11">
+        <v>148000000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="11">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2">
+        <f t="shared" si="9"/>
+        <v>4.3197496065654947E+96</v>
+      </c>
+      <c r="C118" s="11">
+        <v>930000000000000</v>
+      </c>
+      <c r="D118" s="12">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E118" s="11">
+        <v>25200</v>
+      </c>
+      <c r="F118" s="11">
+        <v>0</v>
+      </c>
+      <c r="G118" s="11">
+        <v>150000000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="11">
+        <v>117</v>
+      </c>
+      <c r="B119" s="2">
+        <f t="shared" si="9"/>
+        <v>1.0799374016413736E+97</v>
+      </c>
+      <c r="C119" s="11">
+        <v>939000000000000</v>
+      </c>
+      <c r="D119" s="12">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E119" s="11">
+        <v>25400</v>
+      </c>
+      <c r="F119" s="11">
+        <v>0</v>
+      </c>
+      <c r="G119" s="11">
+        <v>152000000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="13">
+        <v>118</v>
+      </c>
+      <c r="B120" s="14">
+        <f t="shared" si="9"/>
+        <v>2.6998435041034341E+97</v>
+      </c>
+      <c r="C120" s="13">
+        <v>948000000000000</v>
+      </c>
+      <c r="D120" s="15">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E120" s="13">
+        <v>25600</v>
+      </c>
+      <c r="F120" s="13">
+        <v>0</v>
+      </c>
+      <c r="G120" s="13">
+        <v>154000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277FFE77-7DFE-4ED4-A927-6B19A8115EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5377440B-240B-4F8A-8296-4FD8CFA934A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxMask" sheetId="1" r:id="rId1"/>
@@ -851,11 +851,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G116" sqref="G116"/>
+      <selection pane="bottomLeft" activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3933,7 +3933,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="2">
-        <f t="shared" ref="B117:B120" si="9">B116*2.5</f>
+        <f t="shared" ref="B117:B125" si="9">B116*2.5</f>
         <v>1.7278998426261981E+96</v>
       </c>
       <c r="C117" s="11">
@@ -4022,6 +4022,126 @@
       </c>
       <c r="G120" s="13">
         <v>154000000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="7">
+        <v>119</v>
+      </c>
+      <c r="B121" s="8">
+        <f t="shared" si="9"/>
+        <v>6.7496087602585857E+97</v>
+      </c>
+      <c r="C121" s="7">
+        <v>957000000000000</v>
+      </c>
+      <c r="D121" s="9">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E121" s="7">
+        <v>25800</v>
+      </c>
+      <c r="F121" s="7">
+        <v>0</v>
+      </c>
+      <c r="G121" s="7">
+        <v>156000000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="11">
+        <v>120</v>
+      </c>
+      <c r="B122" s="2">
+        <f t="shared" si="9"/>
+        <v>1.6874021900646464E+98</v>
+      </c>
+      <c r="C122" s="11">
+        <v>966000000000000</v>
+      </c>
+      <c r="D122" s="12">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E122" s="11">
+        <v>26000</v>
+      </c>
+      <c r="F122" s="11">
+        <v>0</v>
+      </c>
+      <c r="G122" s="11">
+        <v>158000000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="11">
+        <v>121</v>
+      </c>
+      <c r="B123" s="2">
+        <f t="shared" si="9"/>
+        <v>4.2185054751616159E+98</v>
+      </c>
+      <c r="C123" s="11">
+        <v>975000000000000</v>
+      </c>
+      <c r="D123" s="12">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E123" s="11">
+        <v>26200</v>
+      </c>
+      <c r="F123" s="11">
+        <v>0</v>
+      </c>
+      <c r="G123" s="11">
+        <v>160000000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="11">
+        <v>122</v>
+      </c>
+      <c r="B124" s="2">
+        <f t="shared" si="9"/>
+        <v>1.054626368790404E+99</v>
+      </c>
+      <c r="C124" s="11">
+        <v>984000000000000</v>
+      </c>
+      <c r="D124" s="12">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E124" s="11">
+        <v>26400</v>
+      </c>
+      <c r="F124" s="11">
+        <v>0</v>
+      </c>
+      <c r="G124" s="11">
+        <v>162000000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="13">
+        <v>123</v>
+      </c>
+      <c r="B125" s="14">
+        <f t="shared" si="9"/>
+        <v>2.6365659219760098E+99</v>
+      </c>
+      <c r="C125" s="13">
+        <v>993000000000000</v>
+      </c>
+      <c r="D125" s="15">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E125" s="13">
+        <v>26600</v>
+      </c>
+      <c r="F125" s="13">
+        <v>0</v>
+      </c>
+      <c r="G125" s="13">
+        <v>164000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5377440B-240B-4F8A-8296-4FD8CFA934A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEC0EDB-A561-4DCE-8645-90ED2F277300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxMask" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -508,9 +508,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -526,14 +523,20 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -851,19 +854,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D127" sqref="D127"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H130" sqref="H130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="128" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1634,7 +1637,7 @@
       <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="15">
         <f>B28*8</f>
         <v>5.5318826384411409E+61</v>
       </c>
@@ -1661,7 +1664,7 @@
       <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="15">
         <f>B29*8</f>
         <v>4.4255061107529127E+62</v>
       </c>
@@ -1688,7 +1691,7 @@
       <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="15">
         <f>B30*8</f>
         <v>3.5404048886023302E+63</v>
       </c>
@@ -1715,7 +1718,7 @@
       <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="15">
         <f>B31*8</f>
         <v>2.8323239108818641E+64</v>
       </c>
@@ -1742,7 +1745,7 @@
       <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="15">
         <f>B32*2</f>
         <v>5.6646478217637283E+64</v>
       </c>
@@ -1769,7 +1772,7 @@
       <c r="A34" s="4">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="15">
         <f>B33*3</f>
         <v>1.6993943465291185E+65</v>
       </c>
@@ -1796,7 +1799,7 @@
       <c r="A35" s="4">
         <v>33</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="15">
         <f>B34*3</f>
         <v>5.0981830395873557E+65</v>
       </c>
@@ -1823,7 +1826,7 @@
       <c r="A36" s="4">
         <v>34</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="15">
         <f>B35*3</f>
         <v>1.5294549118762066E+66</v>
       </c>
@@ -1850,7 +1853,7 @@
       <c r="A37" s="4">
         <v>35</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="15">
         <f>B36*3</f>
         <v>4.5883647356286198E+66</v>
       </c>
@@ -1877,7 +1880,7 @@
       <c r="A38" s="4">
         <v>36</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="15">
         <f>B37*1.5</f>
         <v>6.8825471034429301E+66</v>
       </c>
@@ -1904,7 +1907,7 @@
       <c r="A39" s="4">
         <v>37</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="15">
         <f t="shared" ref="B39:B45" si="6">B38*1.5</f>
         <v>1.0323820655164396E+67</v>
       </c>
@@ -1931,7 +1934,7 @@
       <c r="A40" s="4">
         <v>38</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="15">
         <f t="shared" si="6"/>
         <v>1.5485730982746594E+67</v>
       </c>
@@ -1958,7 +1961,7 @@
       <c r="A41" s="4">
         <v>39</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="15">
         <f t="shared" si="6"/>
         <v>2.3228596474119891E+67</v>
       </c>
@@ -1985,7 +1988,7 @@
       <c r="A42" s="4">
         <v>40</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="15">
         <f t="shared" si="6"/>
         <v>3.4842894711179836E+67</v>
       </c>
@@ -2012,7 +2015,7 @@
       <c r="A43" s="4">
         <v>41</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="15">
         <f t="shared" si="6"/>
         <v>5.2264342066769757E+67</v>
       </c>
@@ -2039,7 +2042,7 @@
       <c r="A44" s="4">
         <v>42</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="15">
         <f t="shared" si="6"/>
         <v>7.8396513100154636E+67</v>
       </c>
@@ -2066,7 +2069,7 @@
       <c r="A45" s="4">
         <v>43</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="15">
         <f t="shared" si="6"/>
         <v>1.1759476965023197E+68</v>
       </c>
@@ -2093,7 +2096,7 @@
       <c r="A46" s="4">
         <v>44</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="15">
         <f>B45*2</f>
         <v>2.3518953930046393E+68</v>
       </c>
@@ -2120,7 +2123,7 @@
       <c r="A47" s="4">
         <v>45</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="15">
         <f t="shared" ref="B47:B50" si="7">B46*2</f>
         <v>4.7037907860092786E+68</v>
       </c>
@@ -2147,7 +2150,7 @@
       <c r="A48" s="4">
         <v>46</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="15">
         <f t="shared" si="7"/>
         <v>9.4075815720185573E+68</v>
       </c>
@@ -2174,7 +2177,7 @@
       <c r="A49" s="4">
         <v>47</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="15">
         <f t="shared" si="7"/>
         <v>1.8815163144037115E+69</v>
       </c>
@@ -2201,7 +2204,7 @@
       <c r="A50" s="4">
         <v>48</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="15">
         <f t="shared" si="7"/>
         <v>3.7630326288074229E+69</v>
       </c>
@@ -2228,7 +2231,7 @@
       <c r="A51" s="4">
         <v>49</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="15">
         <f>B50*2.5</f>
         <v>9.4075815720185581E+69</v>
       </c>
@@ -2255,7 +2258,7 @@
       <c r="A52" s="4">
         <v>50</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="15">
         <f t="shared" ref="B52:B116" si="8">B51*2.5</f>
         <v>2.3518953930046395E+70</v>
       </c>
@@ -2282,7 +2285,7 @@
       <c r="A53" s="4">
         <v>51</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="15">
         <f t="shared" si="8"/>
         <v>5.8797384825115988E+70</v>
       </c>
@@ -2309,7 +2312,7 @@
       <c r="A54" s="4">
         <v>52</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="15">
         <f t="shared" si="8"/>
         <v>1.4699346206278998E+71</v>
       </c>
@@ -2336,7 +2339,7 @@
       <c r="A55" s="4">
         <v>53</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="15">
         <f t="shared" si="8"/>
         <v>3.6748365515697491E+71</v>
       </c>
@@ -2363,7 +2366,7 @@
       <c r="A56" s="4">
         <v>54</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="15">
         <f t="shared" si="8"/>
         <v>9.1870913789243734E+71</v>
       </c>
@@ -2390,7 +2393,7 @@
       <c r="A57" s="4">
         <v>55</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="15">
         <f t="shared" si="8"/>
         <v>2.2967728447310931E+72</v>
       </c>
@@ -2417,7 +2420,7 @@
       <c r="A58" s="4">
         <v>56</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="15">
         <f t="shared" si="8"/>
         <v>5.7419321118277325E+72</v>
       </c>
@@ -2444,7 +2447,7 @@
       <c r="A59" s="4">
         <v>57</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="15">
         <f t="shared" si="8"/>
         <v>1.4354830279569331E+73</v>
       </c>
@@ -2471,7 +2474,7 @@
       <c r="A60" s="4">
         <v>58</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="15">
         <f t="shared" si="8"/>
         <v>3.5887075698923328E+73</v>
       </c>
@@ -2498,7 +2501,7 @@
       <c r="A61" s="4">
         <v>59</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="15">
         <f t="shared" si="8"/>
         <v>8.9717689247308323E+73</v>
       </c>
@@ -2525,7 +2528,7 @@
       <c r="A62" s="4">
         <v>60</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="15">
         <f t="shared" si="8"/>
         <v>2.2429422311827082E+74</v>
       </c>
@@ -2552,7 +2555,7 @@
       <c r="A63" s="4">
         <v>61</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="15">
         <f t="shared" si="8"/>
         <v>5.6073555779567705E+74</v>
       </c>
@@ -2579,7 +2582,7 @@
       <c r="A64" s="4">
         <v>62</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="15">
         <f t="shared" si="8"/>
         <v>1.4018388944891926E+75</v>
       </c>
@@ -2606,7 +2609,7 @@
       <c r="A65" s="4">
         <v>63</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="15">
         <f t="shared" si="8"/>
         <v>3.5045972362229817E+75</v>
       </c>
@@ -2633,7 +2636,7 @@
       <c r="A66" s="4">
         <v>64</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="15">
         <f t="shared" si="8"/>
         <v>8.7614930905574544E+75</v>
       </c>
@@ -2660,7 +2663,7 @@
       <c r="A67" s="4">
         <v>65</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="15">
         <f t="shared" si="8"/>
         <v>2.1903732726393637E+76</v>
       </c>
@@ -2687,7 +2690,7 @@
       <c r="A68" s="4">
         <v>66</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="15">
         <f t="shared" si="8"/>
         <v>5.4759331815984095E+76</v>
       </c>
@@ -2714,7 +2717,7 @@
       <c r="A69" s="4">
         <v>67</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="15">
         <f t="shared" si="8"/>
         <v>1.3689832953996023E+77</v>
       </c>
@@ -2741,7 +2744,7 @@
       <c r="A70" s="4">
         <v>68</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="15">
         <f t="shared" si="8"/>
         <v>3.4224582384990056E+77</v>
       </c>
@@ -2768,7 +2771,7 @@
       <c r="A71" s="4">
         <v>69</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="15">
         <f t="shared" si="8"/>
         <v>8.5561455962475141E+77</v>
       </c>
@@ -2795,7 +2798,7 @@
       <c r="A72" s="4">
         <v>70</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="15">
         <f t="shared" si="8"/>
         <v>2.1390363990618786E+78</v>
       </c>
@@ -2822,7 +2825,7 @@
       <c r="A73" s="4">
         <v>71</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="15">
         <f t="shared" si="8"/>
         <v>5.3475909976546964E+78</v>
       </c>
@@ -2849,7 +2852,7 @@
       <c r="A74" s="4">
         <v>72</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="15">
         <f t="shared" si="8"/>
         <v>1.3368977494136741E+79</v>
       </c>
@@ -2876,7 +2879,7 @@
       <c r="A75" s="4">
         <v>73</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="15">
         <f t="shared" si="8"/>
         <v>3.3422443735341853E+79</v>
       </c>
@@ -2903,7 +2906,7 @@
       <c r="A76" s="4">
         <v>74</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="15">
         <f t="shared" si="8"/>
         <v>8.3556109338354633E+79</v>
       </c>
@@ -2930,7 +2933,7 @@
       <c r="A77" s="4">
         <v>75</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="15">
         <f t="shared" si="8"/>
         <v>2.0889027334588659E+80</v>
       </c>
@@ -2957,7 +2960,7 @@
       <c r="A78" s="4">
         <v>76</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="15">
         <f t="shared" si="8"/>
         <v>5.2222568336471645E+80</v>
       </c>
@@ -2984,7 +2987,7 @@
       <c r="A79" s="4">
         <v>77</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="15">
         <f t="shared" si="8"/>
         <v>1.3055642084117912E+81</v>
       </c>
@@ -3011,7 +3014,7 @@
       <c r="A80" s="4">
         <v>78</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="15">
         <f t="shared" si="8"/>
         <v>3.2639105210294777E+81</v>
       </c>
@@ -3038,7 +3041,7 @@
       <c r="A81" s="4">
         <v>79</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="15">
         <f t="shared" si="8"/>
         <v>8.1597763025736943E+81</v>
       </c>
@@ -3065,7 +3068,7 @@
       <c r="A82" s="4">
         <v>80</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="15">
         <f t="shared" si="8"/>
         <v>2.0399440756434234E+82</v>
       </c>
@@ -3092,7 +3095,7 @@
       <c r="A83" s="4">
         <v>81</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="15">
         <f t="shared" si="8"/>
         <v>5.0998601891085582E+82</v>
       </c>
@@ -3119,7 +3122,7 @@
       <c r="A84" s="4">
         <v>82</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="15">
         <f t="shared" si="8"/>
         <v>1.2749650472771395E+83</v>
       </c>
@@ -3146,7 +3149,7 @@
       <c r="A85" s="4">
         <v>83</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="15">
         <f t="shared" si="8"/>
         <v>3.1874126181928487E+83</v>
       </c>
@@ -3173,7 +3176,7 @@
       <c r="A86" s="4">
         <v>84</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="15">
         <f t="shared" si="8"/>
         <v>7.9685315454821224E+83</v>
       </c>
@@ -3200,7 +3203,7 @@
       <c r="A87" s="4">
         <v>85</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="15">
         <f t="shared" si="8"/>
         <v>1.9921328863705305E+84</v>
       </c>
@@ -3227,7 +3230,7 @@
       <c r="A88" s="4">
         <v>86</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="15">
         <f t="shared" si="8"/>
         <v>4.980332215926326E+84</v>
       </c>
@@ -3254,7 +3257,7 @@
       <c r="A89" s="4">
         <v>87</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="15">
         <f t="shared" si="8"/>
         <v>1.2450830539815815E+85</v>
       </c>
@@ -3281,7 +3284,7 @@
       <c r="A90" s="4">
         <v>88</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="15">
         <f t="shared" si="8"/>
         <v>3.1127076349539537E+85</v>
       </c>
@@ -3304,18 +3307,18 @@
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <v>89</v>
       </c>
-      <c r="B91" s="8">
+      <c r="B91" s="16">
         <f t="shared" si="8"/>
         <v>7.7817690873848846E+85</v>
       </c>
       <c r="C91" s="7">
         <v>687000000000000</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D91" s="8">
         <v>8.3333333333333304</v>
       </c>
       <c r="E91" s="7">
@@ -3329,113 +3332,113 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="11">
+      <c r="A92" s="10">
         <v>90</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="15">
         <f t="shared" si="8"/>
         <v>1.9454422718462212E+86</v>
       </c>
-      <c r="C92" s="11">
+      <c r="C92" s="10">
         <v>696000000000000</v>
       </c>
-      <c r="D92" s="12">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E92" s="11">
+      <c r="D92" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E92" s="10">
         <v>20000</v>
       </c>
-      <c r="F92" s="11">
-        <v>0</v>
-      </c>
-      <c r="G92" s="11">
+      <c r="F92" s="10">
+        <v>0</v>
+      </c>
+      <c r="G92" s="10">
         <v>98000000</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="11">
+      <c r="A93" s="10">
         <v>91</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="15">
         <f t="shared" si="8"/>
         <v>4.8636056796155533E+86</v>
       </c>
-      <c r="C93" s="11">
+      <c r="C93" s="10">
         <v>705000000000000</v>
       </c>
-      <c r="D93" s="12">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E93" s="11">
+      <c r="D93" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E93" s="10">
         <v>20200</v>
       </c>
-      <c r="F93" s="11">
-        <v>0</v>
-      </c>
-      <c r="G93" s="11">
+      <c r="F93" s="10">
+        <v>0</v>
+      </c>
+      <c r="G93" s="10">
         <v>100000000</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="11">
+      <c r="A94" s="10">
         <v>92</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="15">
         <f t="shared" si="8"/>
         <v>1.2159014199038884E+87</v>
       </c>
-      <c r="C94" s="11">
+      <c r="C94" s="10">
         <v>714000000000000</v>
       </c>
-      <c r="D94" s="12">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E94" s="11">
+      <c r="D94" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E94" s="10">
         <v>20400</v>
       </c>
-      <c r="F94" s="11">
-        <v>0</v>
-      </c>
-      <c r="G94" s="11">
+      <c r="F94" s="10">
+        <v>0</v>
+      </c>
+      <c r="G94" s="10">
         <v>102000000</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="11">
+      <c r="A95" s="10">
         <v>93</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="15">
         <f t="shared" si="8"/>
         <v>3.0397535497597211E+87</v>
       </c>
-      <c r="C95" s="11">
+      <c r="C95" s="10">
         <v>723000000000000</v>
       </c>
-      <c r="D95" s="12">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E95" s="11">
+      <c r="D95" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E95" s="10">
         <v>20600</v>
       </c>
-      <c r="F95" s="11">
-        <v>0</v>
-      </c>
-      <c r="G95" s="11">
+      <c r="F95" s="10">
+        <v>0</v>
+      </c>
+      <c r="G95" s="10">
         <v>104000000</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7">
         <v>94</v>
       </c>
-      <c r="B96" s="8">
+      <c r="B96" s="16">
         <f t="shared" si="8"/>
         <v>7.5993838743993025E+87</v>
       </c>
       <c r="C96" s="7">
         <v>732000000000000</v>
       </c>
-      <c r="D96" s="9">
+      <c r="D96" s="8">
         <v>8.3333333333333304</v>
       </c>
       <c r="E96" s="7">
@@ -3449,113 +3452,113 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="11">
+      <c r="A97" s="10">
         <v>95</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="15">
         <f t="shared" si="8"/>
         <v>1.8998459685998258E+88</v>
       </c>
-      <c r="C97" s="11">
+      <c r="C97" s="10">
         <v>741000000000000</v>
       </c>
-      <c r="D97" s="12">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E97" s="11">
+      <c r="D97" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E97" s="10">
         <v>21000</v>
       </c>
-      <c r="F97" s="11">
-        <v>0</v>
-      </c>
-      <c r="G97" s="11">
+      <c r="F97" s="10">
+        <v>0</v>
+      </c>
+      <c r="G97" s="10">
         <v>108000000</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="11">
+      <c r="A98" s="10">
         <v>96</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="15">
         <f t="shared" si="8"/>
         <v>4.7496149214995645E+88</v>
       </c>
-      <c r="C98" s="11">
+      <c r="C98" s="10">
         <v>750000000000000</v>
       </c>
-      <c r="D98" s="12">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E98" s="11">
+      <c r="D98" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E98" s="10">
         <v>21200</v>
       </c>
-      <c r="F98" s="11">
-        <v>0</v>
-      </c>
-      <c r="G98" s="11">
+      <c r="F98" s="10">
+        <v>0</v>
+      </c>
+      <c r="G98" s="10">
         <v>110000000</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="11">
+      <c r="A99" s="10">
         <v>97</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="15">
         <f t="shared" si="8"/>
         <v>1.1874037303748912E+89</v>
       </c>
-      <c r="C99" s="11">
+      <c r="C99" s="10">
         <v>759000000000000</v>
       </c>
-      <c r="D99" s="12">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E99" s="11">
+      <c r="D99" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E99" s="10">
         <v>21400</v>
       </c>
-      <c r="F99" s="11">
-        <v>0</v>
-      </c>
-      <c r="G99" s="11">
+      <c r="F99" s="10">
+        <v>0</v>
+      </c>
+      <c r="G99" s="10">
         <v>112000000</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="11">
+      <c r="A100" s="10">
         <v>98</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="15">
         <f t="shared" si="8"/>
         <v>2.9685093259372277E+89</v>
       </c>
-      <c r="C100" s="11">
+      <c r="C100" s="10">
         <v>768000000000000</v>
       </c>
-      <c r="D100" s="12">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E100" s="11">
+      <c r="D100" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E100" s="10">
         <v>21600</v>
       </c>
-      <c r="F100" s="11">
-        <v>0</v>
-      </c>
-      <c r="G100" s="11">
+      <c r="F100" s="10">
+        <v>0</v>
+      </c>
+      <c r="G100" s="10">
         <v>114000000</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>99</v>
       </c>
-      <c r="B101" s="8">
+      <c r="B101" s="16">
         <f t="shared" si="8"/>
         <v>7.4212733148430692E+89</v>
       </c>
       <c r="C101" s="7">
         <v>777000000000000</v>
       </c>
-      <c r="D101" s="9">
+      <c r="D101" s="8">
         <v>8.3333333333333304</v>
       </c>
       <c r="E101" s="7">
@@ -3569,98 +3572,98 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="11">
+      <c r="A102" s="10">
         <v>100</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="15">
         <f t="shared" si="8"/>
         <v>1.8553183287107672E+90</v>
       </c>
-      <c r="C102" s="11">
+      <c r="C102" s="10">
         <v>786000000000000</v>
       </c>
-      <c r="D102" s="12">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E102" s="11">
+      <c r="D102" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E102" s="10">
         <v>22000</v>
       </c>
-      <c r="F102" s="11">
-        <v>0</v>
-      </c>
-      <c r="G102" s="11">
+      <c r="F102" s="10">
+        <v>0</v>
+      </c>
+      <c r="G102" s="10">
         <v>118000000</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="11">
+      <c r="A103" s="10">
         <v>101</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="15">
         <f t="shared" si="8"/>
         <v>4.638295821776918E+90</v>
       </c>
-      <c r="C103" s="11">
+      <c r="C103" s="10">
         <v>795000000000000</v>
       </c>
-      <c r="D103" s="12">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E103" s="11">
+      <c r="D103" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E103" s="10">
         <v>22200</v>
       </c>
-      <c r="F103" s="11">
-        <v>0</v>
-      </c>
-      <c r="G103" s="11">
+      <c r="F103" s="10">
+        <v>0</v>
+      </c>
+      <c r="G103" s="10">
         <v>120000000</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="11">
+      <c r="A104" s="10">
         <v>102</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="15">
         <f t="shared" si="8"/>
         <v>1.1595739554442294E+91</v>
       </c>
-      <c r="C104" s="11">
+      <c r="C104" s="10">
         <v>804000000000000</v>
       </c>
-      <c r="D104" s="12">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E104" s="11">
+      <c r="D104" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E104" s="10">
         <v>22400</v>
       </c>
-      <c r="F104" s="11">
-        <v>0</v>
-      </c>
-      <c r="G104" s="11">
+      <c r="F104" s="10">
+        <v>0</v>
+      </c>
+      <c r="G104" s="10">
         <v>122000000</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="16" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="13">
+    <row r="105" spans="1:7" s="14" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="12">
         <v>103</v>
       </c>
-      <c r="B105" s="14">
+      <c r="B105" s="17">
         <f t="shared" si="8"/>
         <v>2.8989348886105733E+91</v>
       </c>
-      <c r="C105" s="13">
+      <c r="C105" s="12">
         <v>813000000000000</v>
       </c>
-      <c r="D105" s="15">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E105" s="13">
+      <c r="D105" s="13">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E105" s="12">
         <v>22600</v>
       </c>
-      <c r="F105" s="13">
-        <v>0</v>
-      </c>
-      <c r="G105" s="13">
+      <c r="F105" s="12">
+        <v>0</v>
+      </c>
+      <c r="G105" s="12">
         <v>124000000</v>
       </c>
     </row>
@@ -3668,14 +3671,14 @@
       <c r="A106" s="7">
         <v>104</v>
       </c>
-      <c r="B106" s="8">
+      <c r="B106" s="16">
         <f t="shared" si="8"/>
         <v>7.2473372215264334E+91</v>
       </c>
       <c r="C106" s="7">
         <v>822000000000000</v>
       </c>
-      <c r="D106" s="9">
+      <c r="D106" s="8">
         <v>8.3333333333333304</v>
       </c>
       <c r="E106" s="7">
@@ -3689,98 +3692,98 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="11">
+      <c r="A107" s="10">
         <v>105</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="15">
         <f t="shared" si="8"/>
         <v>1.8118343053816082E+92</v>
       </c>
-      <c r="C107" s="11">
+      <c r="C107" s="10">
         <v>831000000000000</v>
       </c>
-      <c r="D107" s="12">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E107" s="11">
+      <c r="D107" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E107" s="10">
         <v>23000</v>
       </c>
-      <c r="F107" s="11">
-        <v>0</v>
-      </c>
-      <c r="G107" s="11">
+      <c r="F107" s="10">
+        <v>0</v>
+      </c>
+      <c r="G107" s="10">
         <v>128000000</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="11">
+      <c r="A108" s="10">
         <v>106</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="15">
         <f t="shared" si="8"/>
         <v>4.5295857634540205E+92</v>
       </c>
-      <c r="C108" s="11">
+      <c r="C108" s="10">
         <v>840000000000000</v>
       </c>
-      <c r="D108" s="12">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E108" s="11">
+      <c r="D108" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E108" s="10">
         <v>23200</v>
       </c>
-      <c r="F108" s="11">
-        <v>0</v>
-      </c>
-      <c r="G108" s="11">
+      <c r="F108" s="10">
+        <v>0</v>
+      </c>
+      <c r="G108" s="10">
         <v>130000000</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="11">
+      <c r="A109" s="10">
         <v>107</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="15">
         <f t="shared" si="8"/>
         <v>1.132396440863505E+93</v>
       </c>
-      <c r="C109" s="11">
+      <c r="C109" s="10">
         <v>849000000000000</v>
       </c>
-      <c r="D109" s="12">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E109" s="11">
+      <c r="D109" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E109" s="10">
         <v>23400</v>
       </c>
-      <c r="F109" s="11">
-        <v>0</v>
-      </c>
-      <c r="G109" s="11">
+      <c r="F109" s="10">
+        <v>0</v>
+      </c>
+      <c r="G109" s="10">
         <v>132000000</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="13">
+      <c r="A110" s="12">
         <v>108</v>
       </c>
-      <c r="B110" s="14">
+      <c r="B110" s="17">
         <f t="shared" si="8"/>
         <v>2.8309911021587628E+93</v>
       </c>
-      <c r="C110" s="13">
+      <c r="C110" s="12">
         <v>858000000000000</v>
       </c>
-      <c r="D110" s="15">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E110" s="13">
+      <c r="D110" s="13">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E110" s="12">
         <v>23600</v>
       </c>
-      <c r="F110" s="13">
-        <v>0</v>
-      </c>
-      <c r="G110" s="13">
+      <c r="F110" s="12">
+        <v>0</v>
+      </c>
+      <c r="G110" s="12">
         <v>134000000</v>
       </c>
     </row>
@@ -3788,14 +3791,14 @@
       <c r="A111" s="7">
         <v>109</v>
       </c>
-      <c r="B111" s="8">
+      <c r="B111" s="16">
         <f t="shared" si="8"/>
         <v>7.0774777553969075E+93</v>
       </c>
       <c r="C111" s="7">
         <v>867000000000000</v>
       </c>
-      <c r="D111" s="9">
+      <c r="D111" s="8">
         <v>8.3333333333333304</v>
       </c>
       <c r="E111" s="7">
@@ -3809,98 +3812,98 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="11">
+      <c r="A112" s="10">
         <v>110</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="15">
         <f t="shared" si="8"/>
         <v>1.769369438849227E+94</v>
       </c>
-      <c r="C112" s="11">
+      <c r="C112" s="10">
         <v>876000000000000</v>
       </c>
-      <c r="D112" s="12">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E112" s="11">
+      <c r="D112" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E112" s="10">
         <v>24000</v>
       </c>
-      <c r="F112" s="11">
-        <v>0</v>
-      </c>
-      <c r="G112" s="11">
+      <c r="F112" s="10">
+        <v>0</v>
+      </c>
+      <c r="G112" s="10">
         <v>138000000</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="11">
+      <c r="A113" s="10">
         <v>111</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="15">
         <f t="shared" si="8"/>
         <v>4.4234235971230674E+94</v>
       </c>
-      <c r="C113" s="11">
+      <c r="C113" s="10">
         <v>885000000000000</v>
       </c>
-      <c r="D113" s="12">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E113" s="11">
+      <c r="D113" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E113" s="10">
         <v>24200</v>
       </c>
-      <c r="F113" s="11">
-        <v>0</v>
-      </c>
-      <c r="G113" s="11">
+      <c r="F113" s="10">
+        <v>0</v>
+      </c>
+      <c r="G113" s="10">
         <v>140000000</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="11">
+      <c r="A114" s="10">
         <v>112</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="15">
         <f t="shared" si="8"/>
         <v>1.1058558992807668E+95</v>
       </c>
-      <c r="C114" s="11">
+      <c r="C114" s="10">
         <v>894000000000000</v>
       </c>
-      <c r="D114" s="12">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E114" s="11">
+      <c r="D114" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E114" s="10">
         <v>24400</v>
       </c>
-      <c r="F114" s="11">
-        <v>0</v>
-      </c>
-      <c r="G114" s="11">
+      <c r="F114" s="10">
+        <v>0</v>
+      </c>
+      <c r="G114" s="10">
         <v>142000000</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="13">
+      <c r="A115" s="12">
         <v>113</v>
       </c>
-      <c r="B115" s="14">
+      <c r="B115" s="17">
         <f t="shared" si="8"/>
         <v>2.7646397482019169E+95</v>
       </c>
-      <c r="C115" s="13">
+      <c r="C115" s="12">
         <v>903000000000000</v>
       </c>
-      <c r="D115" s="15">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E115" s="13">
+      <c r="D115" s="13">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E115" s="12">
         <v>24600</v>
       </c>
-      <c r="F115" s="13">
-        <v>0</v>
-      </c>
-      <c r="G115" s="13">
+      <c r="F115" s="12">
+        <v>0</v>
+      </c>
+      <c r="G115" s="12">
         <v>144000000</v>
       </c>
     </row>
@@ -3908,14 +3911,14 @@
       <c r="A116" s="7">
         <v>114</v>
       </c>
-      <c r="B116" s="8">
+      <c r="B116" s="16">
         <f t="shared" si="8"/>
         <v>6.9115993705047923E+95</v>
       </c>
       <c r="C116" s="7">
         <v>912000000000000</v>
       </c>
-      <c r="D116" s="9">
+      <c r="D116" s="8">
         <v>8.3333333333333304</v>
       </c>
       <c r="E116" s="7">
@@ -3929,98 +3932,98 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" s="11">
+      <c r="A117" s="10">
         <v>115</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="15">
         <f t="shared" ref="B117:B125" si="9">B116*2.5</f>
         <v>1.7278998426261981E+96</v>
       </c>
-      <c r="C117" s="11">
+      <c r="C117" s="10">
         <v>921000000000000</v>
       </c>
-      <c r="D117" s="12">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E117" s="11">
+      <c r="D117" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E117" s="10">
         <v>25000</v>
       </c>
-      <c r="F117" s="11">
-        <v>0</v>
-      </c>
-      <c r="G117" s="11">
+      <c r="F117" s="10">
+        <v>0</v>
+      </c>
+      <c r="G117" s="10">
         <v>148000000</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="11">
+      <c r="A118" s="10">
         <v>116</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="15">
         <f t="shared" si="9"/>
         <v>4.3197496065654947E+96</v>
       </c>
-      <c r="C118" s="11">
+      <c r="C118" s="10">
         <v>930000000000000</v>
       </c>
-      <c r="D118" s="12">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E118" s="11">
+      <c r="D118" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E118" s="10">
         <v>25200</v>
       </c>
-      <c r="F118" s="11">
-        <v>0</v>
-      </c>
-      <c r="G118" s="11">
+      <c r="F118" s="10">
+        <v>0</v>
+      </c>
+      <c r="G118" s="10">
         <v>150000000</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" s="11">
+      <c r="A119" s="10">
         <v>117</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="15">
         <f t="shared" si="9"/>
         <v>1.0799374016413736E+97</v>
       </c>
-      <c r="C119" s="11">
+      <c r="C119" s="10">
         <v>939000000000000</v>
       </c>
-      <c r="D119" s="12">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E119" s="11">
+      <c r="D119" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E119" s="10">
         <v>25400</v>
       </c>
-      <c r="F119" s="11">
-        <v>0</v>
-      </c>
-      <c r="G119" s="11">
+      <c r="F119" s="10">
+        <v>0</v>
+      </c>
+      <c r="G119" s="10">
         <v>152000000</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="13">
+      <c r="A120" s="12">
         <v>118</v>
       </c>
-      <c r="B120" s="14">
+      <c r="B120" s="17">
         <f t="shared" si="9"/>
         <v>2.6998435041034341E+97</v>
       </c>
-      <c r="C120" s="13">
+      <c r="C120" s="12">
         <v>948000000000000</v>
       </c>
-      <c r="D120" s="15">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E120" s="13">
+      <c r="D120" s="13">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E120" s="12">
         <v>25600</v>
       </c>
-      <c r="F120" s="13">
-        <v>0</v>
-      </c>
-      <c r="G120" s="13">
+      <c r="F120" s="12">
+        <v>0</v>
+      </c>
+      <c r="G120" s="12">
         <v>154000000</v>
       </c>
     </row>
@@ -4028,14 +4031,14 @@
       <c r="A121" s="7">
         <v>119</v>
       </c>
-      <c r="B121" s="8">
+      <c r="B121" s="16">
         <f t="shared" si="9"/>
         <v>6.7496087602585857E+97</v>
       </c>
       <c r="C121" s="7">
         <v>957000000000000</v>
       </c>
-      <c r="D121" s="9">
+      <c r="D121" s="8">
         <v>8.3333333333333304</v>
       </c>
       <c r="E121" s="7">
@@ -4049,99 +4052,339 @@
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="11">
+      <c r="A122" s="10">
         <v>120</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="15">
         <f t="shared" si="9"/>
         <v>1.6874021900646464E+98</v>
       </c>
-      <c r="C122" s="11">
+      <c r="C122" s="10">
         <v>966000000000000</v>
       </c>
-      <c r="D122" s="12">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E122" s="11">
+      <c r="D122" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E122" s="10">
         <v>26000</v>
       </c>
-      <c r="F122" s="11">
-        <v>0</v>
-      </c>
-      <c r="G122" s="11">
+      <c r="F122" s="10">
+        <v>0</v>
+      </c>
+      <c r="G122" s="10">
         <v>158000000</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="11">
+      <c r="A123" s="10">
         <v>121</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="15">
         <f t="shared" si="9"/>
         <v>4.2185054751616159E+98</v>
       </c>
-      <c r="C123" s="11">
+      <c r="C123" s="10">
         <v>975000000000000</v>
       </c>
-      <c r="D123" s="12">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E123" s="11">
+      <c r="D123" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E123" s="10">
         <v>26200</v>
       </c>
-      <c r="F123" s="11">
-        <v>0</v>
-      </c>
-      <c r="G123" s="11">
+      <c r="F123" s="10">
+        <v>0</v>
+      </c>
+      <c r="G123" s="10">
         <v>160000000</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="11">
+      <c r="A124" s="10">
         <v>122</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="15">
         <f t="shared" si="9"/>
         <v>1.054626368790404E+99</v>
       </c>
-      <c r="C124" s="11">
+      <c r="C124" s="10">
         <v>984000000000000</v>
       </c>
-      <c r="D124" s="12">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E124" s="11">
+      <c r="D124" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E124" s="10">
         <v>26400</v>
       </c>
-      <c r="F124" s="11">
-        <v>0</v>
-      </c>
-      <c r="G124" s="11">
+      <c r="F124" s="10">
+        <v>0</v>
+      </c>
+      <c r="G124" s="10">
         <v>162000000</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="13">
+      <c r="A125" s="12">
         <v>123</v>
       </c>
-      <c r="B125" s="14">
+      <c r="B125" s="17">
         <f t="shared" si="9"/>
         <v>2.6365659219760098E+99</v>
       </c>
-      <c r="C125" s="13">
+      <c r="C125" s="12">
         <v>993000000000000</v>
       </c>
-      <c r="D125" s="15">
-        <v>8.3333333333333304</v>
-      </c>
-      <c r="E125" s="13">
+      <c r="D125" s="13">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E125" s="12">
         <v>26600</v>
       </c>
-      <c r="F125" s="13">
-        <v>0</v>
-      </c>
-      <c r="G125" s="13">
+      <c r="F125" s="12">
+        <v>0</v>
+      </c>
+      <c r="G125" s="12">
         <v>164000000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="7">
+        <v>124</v>
+      </c>
+      <c r="B126" s="16">
+        <f>B125*5</f>
+        <v>1.3182829609880049E+100</v>
+      </c>
+      <c r="C126" s="7">
+        <v>1002000000000000</v>
+      </c>
+      <c r="D126" s="8">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E126" s="7">
+        <v>26800</v>
+      </c>
+      <c r="F126" s="7">
+        <v>0</v>
+      </c>
+      <c r="G126" s="7">
+        <v>168000000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="10">
+        <v>125</v>
+      </c>
+      <c r="B127" s="16">
+        <f t="shared" ref="B127:B129" si="10">B126*5</f>
+        <v>6.5914148049400248E+100</v>
+      </c>
+      <c r="C127" s="10">
+        <v>1011000000000000</v>
+      </c>
+      <c r="D127" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E127" s="10">
+        <v>27000</v>
+      </c>
+      <c r="F127" s="10">
+        <v>0</v>
+      </c>
+      <c r="G127" s="10">
+        <v>172000000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="10">
+        <v>126</v>
+      </c>
+      <c r="B128" s="16">
+        <f t="shared" si="10"/>
+        <v>3.2957074024700125E+101</v>
+      </c>
+      <c r="C128" s="10">
+        <v>1020000000000000</v>
+      </c>
+      <c r="D128" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E128" s="10">
+        <v>27200</v>
+      </c>
+      <c r="F128" s="10">
+        <v>0</v>
+      </c>
+      <c r="G128" s="10">
+        <v>176000000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="10">
+        <v>127</v>
+      </c>
+      <c r="B129" s="16">
+        <f t="shared" si="10"/>
+        <v>1.6478537012350061E+102</v>
+      </c>
+      <c r="C129" s="10">
+        <v>1029000000000000</v>
+      </c>
+      <c r="D129" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E129" s="10">
+        <v>27400</v>
+      </c>
+      <c r="F129" s="10">
+        <v>0</v>
+      </c>
+      <c r="G129" s="10">
+        <v>180000000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="12">
+        <v>128</v>
+      </c>
+      <c r="B130" s="17">
+        <f>B129*5</f>
+        <v>8.2392685061750312E+102</v>
+      </c>
+      <c r="C130" s="12">
+        <v>1038000000000000</v>
+      </c>
+      <c r="D130" s="13">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E130" s="12">
+        <v>27600</v>
+      </c>
+      <c r="F130" s="12">
+        <v>0</v>
+      </c>
+      <c r="G130" s="12">
+        <v>184000000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="7">
+        <v>129</v>
+      </c>
+      <c r="B131" s="16">
+        <f>B130*5</f>
+        <v>4.1196342530875152E+103</v>
+      </c>
+      <c r="C131" s="7">
+        <v>1047000000000000</v>
+      </c>
+      <c r="D131" s="8">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E131" s="7">
+        <v>27800</v>
+      </c>
+      <c r="F131" s="7">
+        <v>0</v>
+      </c>
+      <c r="G131" s="7">
+        <v>188000000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="10">
+        <v>130</v>
+      </c>
+      <c r="B132" s="16">
+        <f t="shared" ref="B132:B134" si="11">B131*5</f>
+        <v>2.0598171265437575E+104</v>
+      </c>
+      <c r="C132" s="10">
+        <v>1056000000000000</v>
+      </c>
+      <c r="D132" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E132" s="10">
+        <v>28000</v>
+      </c>
+      <c r="F132" s="10">
+        <v>0</v>
+      </c>
+      <c r="G132" s="10">
+        <v>192000000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="10">
+        <v>131</v>
+      </c>
+      <c r="B133" s="16">
+        <f t="shared" si="11"/>
+        <v>1.0299085632718787E+105</v>
+      </c>
+      <c r="C133" s="10">
+        <v>1065000000000000</v>
+      </c>
+      <c r="D133" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E133" s="10">
+        <v>28200</v>
+      </c>
+      <c r="F133" s="10">
+        <v>0</v>
+      </c>
+      <c r="G133" s="10">
+        <v>196000000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="10">
+        <v>132</v>
+      </c>
+      <c r="B134" s="16">
+        <f t="shared" si="11"/>
+        <v>5.1495428163593936E+105</v>
+      </c>
+      <c r="C134" s="10">
+        <v>1074000000000000</v>
+      </c>
+      <c r="D134" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E134" s="10">
+        <v>28400</v>
+      </c>
+      <c r="F134" s="10">
+        <v>0</v>
+      </c>
+      <c r="G134" s="10">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="12">
+        <v>133</v>
+      </c>
+      <c r="B135" s="17">
+        <f>B134*5</f>
+        <v>2.574771408179697E+106</v>
+      </c>
+      <c r="C135" s="12">
+        <v>1083000000000000</v>
+      </c>
+      <c r="D135" s="13">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E135" s="12">
+        <v>28600</v>
+      </c>
+      <c r="F135" s="12">
+        <v>0</v>
+      </c>
+      <c r="G135" s="12">
+        <v>204000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEC0EDB-A561-4DCE-8645-90ED2F277300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8688BD-5742-4047-BE98-152ADBF50B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -854,11 +854,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H130" sqref="H130"/>
+      <selection pane="bottomLeft" activeCell="H135" sqref="H135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4387,6 +4387,126 @@
         <v>204000000</v>
       </c>
     </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="7">
+        <v>134</v>
+      </c>
+      <c r="B136" s="16">
+        <f>B135*5</f>
+        <v>1.2873857040898485E+107</v>
+      </c>
+      <c r="C136" s="7">
+        <v>1092000000000000</v>
+      </c>
+      <c r="D136" s="8">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E136" s="7">
+        <v>28800</v>
+      </c>
+      <c r="F136" s="7">
+        <v>0</v>
+      </c>
+      <c r="G136" s="7">
+        <v>208000000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="10">
+        <v>135</v>
+      </c>
+      <c r="B137" s="16">
+        <f t="shared" ref="B137:B139" si="12">B136*5</f>
+        <v>6.4369285204492424E+107</v>
+      </c>
+      <c r="C137" s="10">
+        <v>1101000000000000</v>
+      </c>
+      <c r="D137" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E137" s="10">
+        <v>29000</v>
+      </c>
+      <c r="F137" s="10">
+        <v>0</v>
+      </c>
+      <c r="G137" s="10">
+        <v>212000000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="10">
+        <v>136</v>
+      </c>
+      <c r="B138" s="16">
+        <f t="shared" si="12"/>
+        <v>3.2184642602246212E+108</v>
+      </c>
+      <c r="C138" s="10">
+        <v>1110000000000000</v>
+      </c>
+      <c r="D138" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E138" s="10">
+        <v>29200</v>
+      </c>
+      <c r="F138" s="10">
+        <v>0</v>
+      </c>
+      <c r="G138" s="10">
+        <v>216000000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="10">
+        <v>137</v>
+      </c>
+      <c r="B139" s="16">
+        <f t="shared" si="12"/>
+        <v>1.6092321301123106E+109</v>
+      </c>
+      <c r="C139" s="10">
+        <v>1119000000000000</v>
+      </c>
+      <c r="D139" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E139" s="10">
+        <v>29400</v>
+      </c>
+      <c r="F139" s="10">
+        <v>0</v>
+      </c>
+      <c r="G139" s="10">
+        <v>220000000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="12">
+        <v>138</v>
+      </c>
+      <c r="B140" s="17">
+        <f>B139*5</f>
+        <v>8.0461606505615534E+109</v>
+      </c>
+      <c r="C140" s="12">
+        <v>1128000000000000</v>
+      </c>
+      <c r="D140" s="13">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E140" s="12">
+        <v>29600</v>
+      </c>
+      <c r="F140" s="12">
+        <v>0</v>
+      </c>
+      <c r="G140" s="12">
+        <v>224000000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8688BD-5742-4047-BE98-152ADBF50B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6EDC25-B183-4E5F-8674-422B8881A742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -854,11 +854,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H135" sqref="H135"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4507,6 +4507,126 @@
         <v>224000000</v>
       </c>
     </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="7">
+        <v>139</v>
+      </c>
+      <c r="B141" s="16">
+        <f>B140*10</f>
+        <v>8.0461606505615531E+110</v>
+      </c>
+      <c r="C141" s="7">
+        <v>1137000000000000</v>
+      </c>
+      <c r="D141" s="8">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E141" s="7">
+        <v>29800</v>
+      </c>
+      <c r="F141" s="7">
+        <v>0</v>
+      </c>
+      <c r="G141" s="7">
+        <v>228000000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="10">
+        <v>140</v>
+      </c>
+      <c r="B142" s="16">
+        <f t="shared" ref="B142:B145" si="13">B141*10</f>
+        <v>8.0461606505615533E+111</v>
+      </c>
+      <c r="C142" s="10">
+        <v>1146000000000000</v>
+      </c>
+      <c r="D142" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E142" s="10">
+        <v>30000</v>
+      </c>
+      <c r="F142" s="10">
+        <v>0</v>
+      </c>
+      <c r="G142" s="10">
+        <v>232000000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" s="10">
+        <v>141</v>
+      </c>
+      <c r="B143" s="16">
+        <f t="shared" si="13"/>
+        <v>8.0461606505615525E+112</v>
+      </c>
+      <c r="C143" s="10">
+        <v>1155000000000000</v>
+      </c>
+      <c r="D143" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E143" s="10">
+        <v>30200</v>
+      </c>
+      <c r="F143" s="10">
+        <v>0</v>
+      </c>
+      <c r="G143" s="10">
+        <v>236000000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" s="10">
+        <v>142</v>
+      </c>
+      <c r="B144" s="16">
+        <f t="shared" si="13"/>
+        <v>8.0461606505615518E+113</v>
+      </c>
+      <c r="C144" s="10">
+        <v>1164000000000000</v>
+      </c>
+      <c r="D144" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E144" s="10">
+        <v>30400</v>
+      </c>
+      <c r="F144" s="10">
+        <v>0</v>
+      </c>
+      <c r="G144" s="10">
+        <v>240000000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="12">
+        <v>143</v>
+      </c>
+      <c r="B145" s="17">
+        <f>B144*10</f>
+        <v>8.0461606505615512E+114</v>
+      </c>
+      <c r="C145" s="12">
+        <v>1173000000000000</v>
+      </c>
+      <c r="D145" s="13">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E145" s="12">
+        <v>30600</v>
+      </c>
+      <c r="F145" s="12">
+        <v>0</v>
+      </c>
+      <c r="G145" s="12">
+        <v>244000000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6EDC25-B183-4E5F-8674-422B8881A742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F9DE8F-3380-4C00-9A86-5F1EDDE69B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="27900" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxMask" sheetId="1" r:id="rId1"/>
@@ -854,11 +854,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B145" sqref="B145"/>
+      <selection pane="bottomLeft" activeCell="F148" sqref="F148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4536,7 +4536,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="16">
-        <f t="shared" ref="B142:B145" si="13">B141*10</f>
+        <f t="shared" ref="B142:B144" si="13">B141*10</f>
         <v>8.0461606505615533E+111</v>
       </c>
       <c r="C142" s="10">
@@ -4625,6 +4625,126 @@
       </c>
       <c r="G145" s="12">
         <v>244000000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" s="7">
+        <v>144</v>
+      </c>
+      <c r="B146" s="16">
+        <f>B145*10</f>
+        <v>8.0461606505615512E+115</v>
+      </c>
+      <c r="C146" s="7">
+        <v>1182000000000000</v>
+      </c>
+      <c r="D146" s="8">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E146" s="7">
+        <v>30800</v>
+      </c>
+      <c r="F146" s="7">
+        <v>0</v>
+      </c>
+      <c r="G146" s="7">
+        <v>248000000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" s="10">
+        <v>145</v>
+      </c>
+      <c r="B147" s="16">
+        <f t="shared" ref="B147:B149" si="14">B146*10</f>
+        <v>8.0461606505615512E+116</v>
+      </c>
+      <c r="C147" s="10">
+        <v>1191000000000000</v>
+      </c>
+      <c r="D147" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E147" s="10">
+        <v>31000</v>
+      </c>
+      <c r="F147" s="10">
+        <v>0</v>
+      </c>
+      <c r="G147" s="10">
+        <v>252000000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="10">
+        <v>146</v>
+      </c>
+      <c r="B148" s="16">
+        <f t="shared" si="14"/>
+        <v>8.0461606505615507E+117</v>
+      </c>
+      <c r="C148" s="10">
+        <v>1200000000000000</v>
+      </c>
+      <c r="D148" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E148" s="10">
+        <v>31200</v>
+      </c>
+      <c r="F148" s="10">
+        <v>0</v>
+      </c>
+      <c r="G148" s="10">
+        <v>256000000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="10">
+        <v>147</v>
+      </c>
+      <c r="B149" s="16">
+        <f t="shared" si="14"/>
+        <v>8.0461606505615511E+118</v>
+      </c>
+      <c r="C149" s="10">
+        <v>1209000000000000</v>
+      </c>
+      <c r="D149" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E149" s="10">
+        <v>31400</v>
+      </c>
+      <c r="F149" s="10">
+        <v>0</v>
+      </c>
+      <c r="G149" s="10">
+        <v>260000000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="12">
+        <v>148</v>
+      </c>
+      <c r="B150" s="17">
+        <f>B149*10</f>
+        <v>8.0461606505615511E+119</v>
+      </c>
+      <c r="C150" s="12">
+        <v>1218000000000000</v>
+      </c>
+      <c r="D150" s="13">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E150" s="12">
+        <v>31600</v>
+      </c>
+      <c r="F150" s="12">
+        <v>0</v>
+      </c>
+      <c r="G150" s="12">
+        <v>264000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxMask.xlsx
+++ b/Assets/06.Table/FoxMask.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F9DE8F-3380-4C00-9A86-5F1EDDE69B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F409E3-8334-4AC6-A18C-2DA901C153AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27900" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxMask" sheetId="1" r:id="rId1"/>
@@ -854,11 +854,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F148" sqref="F148"/>
+      <selection pane="bottomLeft" activeCell="K149" sqref="K149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4656,7 +4656,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="16">
-        <f t="shared" ref="B147:B149" si="14">B146*10</f>
+        <f t="shared" ref="B147:B155" si="14">B146*10</f>
         <v>8.0461606505615512E+116</v>
       </c>
       <c r="C147" s="10">
@@ -4745,6 +4745,126 @@
       </c>
       <c r="G150" s="12">
         <v>264000000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="7">
+        <v>149</v>
+      </c>
+      <c r="B151" s="16">
+        <f>B150*10</f>
+        <v>8.0461606505615514E+120</v>
+      </c>
+      <c r="C151" s="7">
+        <v>1227000000000000</v>
+      </c>
+      <c r="D151" s="8">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E151" s="7">
+        <v>31800</v>
+      </c>
+      <c r="F151" s="7">
+        <v>0</v>
+      </c>
+      <c r="G151" s="7">
+        <v>268000000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="10">
+        <v>150</v>
+      </c>
+      <c r="B152" s="16">
+        <f t="shared" si="14"/>
+        <v>8.0461606505615514E+121</v>
+      </c>
+      <c r="C152" s="10">
+        <v>1236000000000000</v>
+      </c>
+      <c r="D152" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E152" s="10">
+        <v>32000</v>
+      </c>
+      <c r="F152" s="10">
+        <v>0</v>
+      </c>
+      <c r="G152" s="10">
+        <v>272000000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="10">
+        <v>151</v>
+      </c>
+      <c r="B153" s="16">
+        <f t="shared" si="14"/>
+        <v>8.046160650561552E+122</v>
+      </c>
+      <c r="C153" s="10">
+        <v>1245000000000000</v>
+      </c>
+      <c r="D153" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E153" s="10">
+        <v>32200</v>
+      </c>
+      <c r="F153" s="10">
+        <v>0</v>
+      </c>
+      <c r="G153" s="10">
+        <v>276000000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="10">
+        <v>152</v>
+      </c>
+      <c r="B154" s="16">
+        <f t="shared" si="14"/>
+        <v>8.0461606505615523E+123</v>
+      </c>
+      <c r="C154" s="10">
+        <v>1254000000000000</v>
+      </c>
+      <c r="D154" s="11">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E154" s="10">
+        <v>32400</v>
+      </c>
+      <c r="F154" s="10">
+        <v>0</v>
+      </c>
+      <c r="G154" s="10">
+        <v>280000000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="12">
+        <v>153</v>
+      </c>
+      <c r="B155" s="17">
+        <f>B154*10</f>
+        <v>8.046160650561552E+124</v>
+      </c>
+      <c r="C155" s="12">
+        <v>1263000000000000</v>
+      </c>
+      <c r="D155" s="13">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="E155" s="12">
+        <v>32600</v>
+      </c>
+      <c r="F155" s="12">
+        <v>0</v>
+      </c>
+      <c r="G155" s="12">
+        <v>284000000</v>
       </c>
     </row>
   </sheetData>
